--- a/Fontes/fornecedores.xlsx
+++ b/Fontes/fornecedores.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuno\Documents\GitHub\Arraial\Fontes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Documents\GitHub\Arraial\Fontes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11836AFB-F7E6-4468-8B57-3467FBE97039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DB883-DF00-4D34-ADA2-B2F52D719329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="aquisicoes" sheetId="3" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">aquisicoes!$A$1:$D$101</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">Folha1!$A$1:$D$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,10 +195,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98C307F0-A954-4868-A514-430E63696916}" name="aquisicoes" displayName="aquisicoes" ref="A1:D101" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{98C307F0-A954-4868-A514-430E63696916}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{8E8D28D2-A56E-44E5-8EC9-7C05A331D11E}" uniqueName="2" name="IDAquisicao" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{085D7FDB-69F2-435F-A056-3ED0AAB1550C}" uniqueName="1" name="IDEvento" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4157AAC8-67F7-46D1-B663-8FAD500EB5B6}" uniqueName="3" name="IDFornecedor" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{869212E5-FC07-4C44-9549-9A3E8E115D7A}" uniqueName="4" name="TipoAquisicao" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{8E8D28D2-A56E-44E5-8EC9-7C05A331D11E}" uniqueName="2" name="IDAquisicao" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{085D7FDB-69F2-435F-A056-3ED0AAB1550C}" uniqueName="1" name="IDEvento" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{4157AAC8-67F7-46D1-B663-8FAD500EB5B6}" uniqueName="3" name="IDFornecedor" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{869212E5-FC07-4C44-9549-9A3E8E115D7A}" uniqueName="4" name="TipoAquisicao" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -473,14 +473,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="46.08984375" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">LEFT(CELL("filename",A2),FIND("Fontes\",CELL("filename",A2))-1)</f>
-        <v>C:\Users\nuno\Documents\GitHub\Arraial\</v>
+        <v>C:\Users\Diogo\Documents\GitHub\Arraial\</v>
       </c>
     </row>
   </sheetData>
@@ -511,21 +511,21 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D101"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>501</v>
       </c>
@@ -553,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>502</v>
       </c>
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>503</v>
       </c>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>504</v>
       </c>
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>505</v>
       </c>
@@ -609,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>506</v>
       </c>
@@ -623,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>507</v>
       </c>
@@ -637,7 +637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>508</v>
       </c>
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>509</v>
       </c>
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>510</v>
       </c>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>511</v>
       </c>
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>512</v>
       </c>
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>513</v>
       </c>
@@ -721,7 +721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>514</v>
       </c>
@@ -735,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>515</v>
       </c>
@@ -749,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>516</v>
       </c>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>517</v>
       </c>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>518</v>
       </c>
@@ -791,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>519</v>
       </c>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>520</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>521</v>
       </c>
@@ -833,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>522</v>
       </c>
@@ -847,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>523</v>
       </c>
@@ -861,7 +861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>524</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>525</v>
       </c>
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>526</v>
       </c>
@@ -903,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>527</v>
       </c>
@@ -917,7 +917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>528</v>
       </c>
@@ -931,7 +931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>529</v>
       </c>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>530</v>
       </c>
@@ -959,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>531</v>
       </c>
@@ -973,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>532</v>
       </c>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>533</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>534</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>535</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>536</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>537</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>538</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>539</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>540</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>541</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>542</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>543</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>544</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>545</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>546</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>547</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>548</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>549</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>550</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>551</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>552</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>553</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>554</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>555</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>556</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>557</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>558</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>559</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>560</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>561</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>562</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>563</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>564</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>565</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>566</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>567</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>568</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>569</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>570</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>571</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>572</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>573</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>574</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>575</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>576</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>577</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>578</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>579</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>580</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>581</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>582</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>583</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>584</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>585</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>586</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>587</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>588</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>589</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>590</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>591</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>592</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>593</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>594</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>595</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>596</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>597</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>598</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>599</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>600</v>
       </c>
